--- a/3_4Graph.xlsx
+++ b/3_4Graph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpartaGlobal\Course\Week 2\ScriptsSQL\SQL Mini Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE69F3A-8737-4A13-AD5B-F2D85B835ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CBD38A-A1D0-44DE-B72D-A09BA73ECA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16845" yWindow="3480" windowWidth="15630" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -31,11 +31,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Month/Year</t>
   </si>
   <si>
+    <t>AverageShipTimeByMonth</t>
+  </si>
+  <si>
     <t>07/1996</t>
   </si>
   <si>
@@ -103,9 +106,6 @@
   </si>
   <si>
     <t>05/1998</t>
-  </si>
-  <si>
-    <t>AverageShipTimeByMonth</t>
   </si>
 </sst>
 </file>
@@ -141,9 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -322,73 +320,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>27</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>27</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>27</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -396,7 +394,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B07D-421C-9DC5-856B8D3A107D}"/>
+              <c16:uniqueId val="{00000000-A857-49E4-9C3F-43D36C950DFB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -409,71 +407,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="72986688"/>
-        <c:axId val="73007072"/>
+        <c:axId val="1596917472"/>
+        <c:axId val="1596920384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72986688"/>
+        <c:axId val="1596917472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Date</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -511,7 +454,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73007072"/>
+        <c:crossAx val="1596920384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -519,7 +462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73007072"/>
+        <c:axId val="1596920384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -539,61 +482,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Ship Time (days)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -625,7 +513,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72986688"/>
+        <c:crossAx val="1596917472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1242,22 +1130,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>495299</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>103414</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23EB4E38-8F10-41F2-86D7-681EA0008C18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92ECA8E4-50DD-4C41-B068-D091DDBBA918}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,302 +1465,298 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="V8" sqref="V7:V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="str">
+      <c r="A2" t="str">
         <f>TEXT(B2,"mmm-yy")</f>
         <v>Jul-96</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="str">
+      <c r="A3" t="str">
         <f t="shared" ref="A3:A24" si="0">TEXT(B3,"mmm-yy")</f>
         <v>Aug-96</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>Sep-96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>Oct-96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>Nov-96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>Dec-96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>Jan-97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>Feb-97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>Mar-97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>Apr-97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>May-97</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>Jun-97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>Jul-97</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>Aug-97</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>Sep-97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>Oct-97</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>Nov-97</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>Dec-97</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>Jan-98</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>Feb-98</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>Mar-98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>Apr-98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>May-98</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
         <v>2</v>
-      </c>
-      <c r="C3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Sep-96</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Oct-96</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Nov-96</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dec-96</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Jan-97</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Feb-97</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mar-97</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Apr-97</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>May-97</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Jun-97</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Jul-97</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Aug-97</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Sep-97</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Oct-97</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Nov-97</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Dec-97</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Jan-98</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Feb-98</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mar-98</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Apr-98</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>May-98</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
